--- a/data/entre_rios_corregido.xlsx
+++ b/data/entre_rios_corregido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/desiertos/side/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{364A4486-0C08-9747-81DE-15A5C0475DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8069E5F7-D654-2649-8F2A-0E90FE1A83C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14200" xr2:uid="{063BAC48-DBFD-E447-A0CF-3CE3CC2E842B}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14180" xr2:uid="{063BAC48-DBFD-E447-A0CF-3CE3CC2E842B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
